--- a/static/templates_base_interna/5 PLANEACION/2 PLAN BASADO EN RIESGOS/21.1 Análisis Vertical  Resultados.xlsx
+++ b/static/templates_base_interna/5 PLANEACION/2 PLAN BASADO EN RIESGOS/21.1 Análisis Vertical  Resultados.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\workana\Trabajo Victor Guatemala\auditaPro\auditapro\static\templates_base_interna\5 PLANEACION\2 PLAN BASADO EN RIESGOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\ClienteAuditaPro1\sistema-audita\static\templates_base_interna\5 PLANEACION\2 PLAN BASADO EN RIESGOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287A2EFB-54E6-4B87-8446-8DC7084EC38D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5887A3A7-B452-49B9-834A-CDCA4DF97293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="885" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -191,9 +191,6 @@
   </si>
   <si>
     <t xml:space="preserve">Evaluación de Riesgo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                    Entidad XXXXXXX</t>
   </si>
   <si>
     <t>Análisis Horizontal</t>
@@ -340,10 +337,13 @@
     <t xml:space="preserve">                                                                                       ANÁLISIS VERTICAL DE BALANCE GENERAL </t>
   </si>
   <si>
-    <t xml:space="preserve">                                             Auditoría  de Procesos </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                          Del 01 de Enero al 31 de Diciembre de 2024</t>
+    <t>Del 01 de Enero al 31 de Diciembre de 2024</t>
+  </si>
+  <si>
+    <t>Entidad XXXXXXX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auditoría  de Procesos </t>
   </si>
 </sst>
 </file>
@@ -643,14 +643,11 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -752,9 +749,6 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -839,6 +833,9 @@
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1453,7 +1450,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="11.42578125" style="7"/>
+    <col min="1" max="16384" width="11.42578125" style="6"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1464,8 +1461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:N107"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1484,1145 +1481,1150 @@
     <row r="2" spans="2:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:12" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I4" s="43" t="s">
+      <c r="I4" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="44"/>
+      <c r="J4" s="43"/>
     </row>
     <row r="5" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I5" s="43" t="s">
+      <c r="I5" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="J5" s="45"/>
+      <c r="J5" s="44"/>
     </row>
     <row r="6" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I6" s="43" t="s">
+      <c r="I6" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="44"/>
+      <c r="J6" s="43"/>
     </row>
     <row r="7" spans="2:12" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
-      <c r="I7" s="43" t="s">
+      <c r="I7" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="J7" s="45"/>
+      <c r="J7" s="44"/>
     </row>
     <row r="8" spans="2:12" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="18"/>
-      <c r="C8" s="46" t="s">
+      <c r="B8" s="17"/>
+      <c r="C8" s="78" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="2:12" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="17"/>
+      <c r="C9" s="78" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="2:12" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="17"/>
+      <c r="C10" s="78" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="3"/>
+      <c r="L10" s="46"/>
+    </row>
+    <row r="11" spans="2:12" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="47"/>
+    </row>
+    <row r="12" spans="2:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+    </row>
+    <row r="13" spans="2:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+    </row>
+    <row r="14" spans="2:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="20"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+    </row>
+    <row r="15" spans="2:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+    </row>
+    <row r="16" spans="2:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="20"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+    </row>
+    <row r="17" spans="2:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="48"/>
+      <c r="C17" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="49"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+    </row>
+    <row r="18" spans="2:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="48"/>
+      <c r="C18" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+    </row>
+    <row r="19" spans="2:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="47"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="2:12" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="18"/>
-      <c r="C9" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" s="47"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="2:12" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="18"/>
-      <c r="C10" s="47" t="s">
-        <v>88</v>
-      </c>
-      <c r="D10" s="47"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="L10" s="48"/>
-    </row>
-    <row r="11" spans="2:12" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="49"/>
-    </row>
-    <row r="12" spans="2:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-    </row>
-    <row r="13" spans="2:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="21" t="s">
+      <c r="C19" s="53">
+        <v>0</v>
+      </c>
+      <c r="D19" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="E19" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+    </row>
+    <row r="20" spans="2:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="52"/>
+      <c r="C20" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="D20" s="53">
+        <v>0.2</v>
+      </c>
+      <c r="E20" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+    </row>
+    <row r="21" spans="2:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="52"/>
+      <c r="C21" s="53">
+        <v>0.2</v>
+      </c>
+      <c r="D21" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="56" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="25"/>
+      <c r="C22" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="57"/>
+    </row>
+    <row r="23" spans="2:10" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-    </row>
-    <row r="14" spans="2:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="21"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-    </row>
-    <row r="15" spans="2:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-    </row>
-    <row r="16" spans="2:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="21"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-    </row>
-    <row r="17" spans="2:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="50"/>
-      <c r="C17" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="51"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-    </row>
-    <row r="18" spans="2:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="50"/>
-      <c r="C18" s="53" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-    </row>
-    <row r="19" spans="2:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="55">
-        <v>0</v>
-      </c>
-      <c r="D19" s="55">
-        <v>0.1</v>
-      </c>
-      <c r="E19" s="56" t="s">
-        <v>50</v>
-      </c>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-    </row>
-    <row r="20" spans="2:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="54"/>
-      <c r="C20" s="55">
-        <v>0.1</v>
-      </c>
-      <c r="D20" s="55">
-        <v>0.2</v>
-      </c>
-      <c r="E20" s="57" t="s">
-        <v>51</v>
-      </c>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-    </row>
-    <row r="21" spans="2:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="54"/>
-      <c r="C21" s="55">
-        <v>0.2</v>
-      </c>
-      <c r="D21" s="55" t="s">
+      <c r="G23" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="J23" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="58" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="26"/>
-      <c r="C22" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="F22" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="59"/>
-    </row>
-    <row r="23" spans="2:10" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="E23" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="F23" s="60" t="s">
+    </row>
+    <row r="24" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="73"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="9">
+        <f>D24-C24</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="72" t="e">
+        <f>$D$41/D24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="42"/>
+    </row>
+    <row r="25" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="74"/>
+      <c r="D25" s="74"/>
+      <c r="E25" s="9">
+        <f t="shared" ref="E25:E54" si="0">D25-C25</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="72" t="e">
+        <f>$D$41/D25</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="42"/>
+    </row>
+    <row r="26" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="74"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="72" t="e">
+        <f t="shared" ref="F26:F39" si="1">$D$41/D26</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="42"/>
+    </row>
+    <row r="27" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="74"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="72" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="42"/>
+    </row>
+    <row r="28" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="74"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="72" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="42"/>
+    </row>
+    <row r="29" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="74"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="72" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="42"/>
+    </row>
+    <row r="30" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="74"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="72" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="42"/>
+    </row>
+    <row r="31" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="74"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="72" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="42"/>
+    </row>
+    <row r="32" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="74"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F32" s="72" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="42"/>
+    </row>
+    <row r="33" spans="2:14" s="1" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="B33" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="74"/>
+      <c r="D33" s="74"/>
+      <c r="E33" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F33" s="72" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="42"/>
+    </row>
+    <row r="34" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="74"/>
+      <c r="D34" s="73"/>
+      <c r="E34" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="72" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="42"/>
+    </row>
+    <row r="35" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="74"/>
+      <c r="D35" s="74"/>
+      <c r="E35" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F35" s="72" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="42"/>
+    </row>
+    <row r="36" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="73"/>
+      <c r="D36" s="73"/>
+      <c r="E36" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F36" s="72" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="42"/>
+    </row>
+    <row r="37" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="74"/>
+      <c r="D37" s="74"/>
+      <c r="E37" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F37" s="72" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="42"/>
+    </row>
+    <row r="38" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="74"/>
+      <c r="D38" s="74"/>
+      <c r="E38" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F38" s="72" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="42"/>
+    </row>
+    <row r="39" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="74"/>
+      <c r="D39" s="73"/>
+      <c r="E39" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F39" s="72" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="42"/>
+    </row>
+    <row r="40" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="74"/>
+      <c r="D40" s="74"/>
+      <c r="E40" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F40" s="72" t="e">
+        <f>$D$41/D40</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="42"/>
+    </row>
+    <row r="41" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="74">
+        <f>SUM(C24:C40)</f>
+        <v>0</v>
+      </c>
+      <c r="D41" s="74">
+        <f>SUM(D24:D40)</f>
+        <v>0</v>
+      </c>
+      <c r="E41" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="42"/>
+    </row>
+    <row r="42" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="74"/>
+      <c r="D42" s="76"/>
+      <c r="E42" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="42"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+    </row>
+    <row r="43" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="76"/>
+      <c r="D43" s="76"/>
+      <c r="E43" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F43" s="72" t="e">
+        <f>$D$53/D43</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="42"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+    </row>
+    <row r="44" spans="2:14" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="74"/>
+      <c r="D44" s="74"/>
+      <c r="E44" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F44" s="72" t="e">
+        <f t="shared" ref="F44:F52" si="2">$D$53/D44</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="42"/>
+      <c r="M44" s="5"/>
+    </row>
+    <row r="45" spans="2:14" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" s="73"/>
+      <c r="D45" s="73"/>
+      <c r="E45" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F45" s="72" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="42"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+    </row>
+    <row r="46" spans="2:14" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="C46" s="75"/>
+      <c r="D46" s="75"/>
+      <c r="E46" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F46" s="72" t="e">
+        <f>$D$53/D46</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G46" s="42"/>
+      <c r="H46" s="42"/>
+      <c r="I46" s="42"/>
+      <c r="J46" s="42"/>
+    </row>
+    <row r="47" spans="2:14" s="1" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="B47" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="75"/>
+      <c r="D47" s="75"/>
+      <c r="E47" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F47" s="72" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G47" s="42"/>
+      <c r="H47" s="42"/>
+      <c r="I47" s="42"/>
+      <c r="J47" s="42"/>
+    </row>
+    <row r="48" spans="2:14" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="61" t="s">
+        <v>32</v>
+      </c>
+      <c r="C48" s="77"/>
+      <c r="D48" s="77"/>
+      <c r="E48" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F48" s="72" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G48" s="65"/>
+      <c r="H48" s="65"/>
+      <c r="I48" s="65"/>
+      <c r="J48" s="65"/>
+    </row>
+    <row r="49" spans="2:10" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49" s="77"/>
+      <c r="D49" s="77"/>
+      <c r="E49" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F49" s="72" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G49" s="65"/>
+      <c r="H49" s="65"/>
+      <c r="I49" s="65"/>
+      <c r="J49" s="65"/>
+    </row>
+    <row r="50" spans="2:10" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="C50" s="77"/>
+      <c r="D50" s="77"/>
+      <c r="E50" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F50" s="72" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G50" s="65"/>
+      <c r="H50" s="65"/>
+      <c r="I50" s="65"/>
+      <c r="J50" s="65"/>
+    </row>
+    <row r="51" spans="2:10" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="C51" s="75"/>
+      <c r="D51" s="75"/>
+      <c r="E51" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F51" s="72" t="e">
+        <f>$D$53/D51</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G51" s="42"/>
+      <c r="H51" s="42"/>
+      <c r="I51" s="42"/>
+      <c r="J51" s="42"/>
+    </row>
+    <row r="52" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52" s="75"/>
+      <c r="D52" s="75"/>
+      <c r="E52" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F52" s="72" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G52" s="42"/>
+      <c r="H52" s="42"/>
+      <c r="I52" s="42"/>
+      <c r="J52" s="42"/>
+    </row>
+    <row r="53" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="C53" s="75">
+        <f>SUM(C43:C52)</f>
+        <v>0</v>
+      </c>
+      <c r="D53" s="75">
+        <f>SUM(D43:D52)</f>
+        <v>0</v>
+      </c>
+      <c r="E53" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F53" s="72" t="e">
+        <f>$D$53/D53</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G53" s="42"/>
+      <c r="H53" s="42"/>
+      <c r="I53" s="42"/>
+      <c r="J53" s="42"/>
+    </row>
+    <row r="54" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="C54" s="42"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F54" s="42"/>
+      <c r="G54" s="42"/>
+      <c r="H54" s="42"/>
+      <c r="I54" s="42"/>
+      <c r="J54" s="42"/>
+    </row>
+    <row r="55" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C55" s="13"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="35"/>
+    </row>
+    <row r="56" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="18"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="19"/>
+    </row>
+    <row r="57" spans="2:10" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B57" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57" s="36"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="36"/>
+      <c r="G57" s="36"/>
+      <c r="H57" s="36"/>
+      <c r="I57" s="36"/>
+      <c r="J57" s="36"/>
+    </row>
+    <row r="58" spans="2:10" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B58" s="68" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="69"/>
+    </row>
+    <row r="60" spans="2:10" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B60" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="G23" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="H23" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="I23" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="J23" s="35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="62" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="75"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="10">
-        <f>D24-C24</f>
-        <v>0</v>
-      </c>
-      <c r="F24" s="74" t="e">
-        <f>$D$41/D24</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="43"/>
-    </row>
-    <row r="25" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="76"/>
-      <c r="D25" s="76"/>
-      <c r="E25" s="10">
-        <f t="shared" ref="E25:E54" si="0">D25-C25</f>
-        <v>0</v>
-      </c>
-      <c r="F25" s="74" t="e">
-        <f>$D$41/D25</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="43"/>
-    </row>
-    <row r="26" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="76"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="74" t="e">
-        <f t="shared" ref="F25:F40" si="1">$D$41/D26</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="43"/>
-    </row>
-    <row r="27" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="76"/>
-      <c r="D27" s="76"/>
-      <c r="E27" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F27" s="74" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="43"/>
-    </row>
-    <row r="28" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="63" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="76"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F28" s="74" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="43"/>
-    </row>
-    <row r="29" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="76"/>
-      <c r="D29" s="76"/>
-      <c r="E29" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F29" s="74" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="43"/>
-    </row>
-    <row r="30" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="63" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="76"/>
-      <c r="D30" s="76"/>
-      <c r="E30" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F30" s="74" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="43"/>
-    </row>
-    <row r="31" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="76"/>
-      <c r="D31" s="76"/>
-      <c r="E31" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F31" s="74" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="43"/>
-    </row>
-    <row r="32" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="63" t="s">
-        <v>30</v>
-      </c>
-      <c r="C32" s="76"/>
-      <c r="D32" s="76"/>
-      <c r="E32" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F32" s="74" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="43"/>
-    </row>
-    <row r="33" spans="2:14" s="1" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="64" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="76"/>
-      <c r="D33" s="76"/>
-      <c r="E33" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F33" s="74" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="43"/>
-    </row>
-    <row r="34" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="63" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="76"/>
-      <c r="D34" s="75"/>
-      <c r="E34" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F34" s="74" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="43"/>
-    </row>
-    <row r="35" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="63" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="76"/>
-      <c r="D35" s="76"/>
-      <c r="E35" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F35" s="74" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="43"/>
-    </row>
-    <row r="36" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" s="75"/>
-      <c r="D36" s="75"/>
-      <c r="E36" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F36" s="74" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="43"/>
-    </row>
-    <row r="37" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="63" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="76"/>
-      <c r="D37" s="76"/>
-      <c r="E37" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F37" s="74" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="43"/>
-    </row>
-    <row r="38" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="63" t="s">
-        <v>31</v>
-      </c>
-      <c r="C38" s="76"/>
-      <c r="D38" s="76"/>
-      <c r="E38" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F38" s="74" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="43"/>
-    </row>
-    <row r="39" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="C39" s="76"/>
-      <c r="D39" s="75"/>
-      <c r="E39" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F39" s="74" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="43"/>
-    </row>
-    <row r="40" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="63" t="s">
-        <v>13</v>
-      </c>
-      <c r="C40" s="76"/>
-      <c r="D40" s="76"/>
-      <c r="E40" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F40" s="74" t="e">
-        <f>$D$41/D40</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="43"/>
-    </row>
-    <row r="41" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="62" t="s">
-        <v>14</v>
-      </c>
-      <c r="C41" s="76">
-        <f>SUM(C24:C40)</f>
-        <v>0</v>
-      </c>
-      <c r="D41" s="76">
-        <f>SUM(D24:D40)</f>
-        <v>0</v>
-      </c>
-      <c r="E41" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="43"/>
-    </row>
-    <row r="42" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="65" t="s">
-        <v>15</v>
-      </c>
-      <c r="C42" s="76"/>
-      <c r="D42" s="78"/>
-      <c r="E42" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="43"/>
-      <c r="M42" s="6"/>
-      <c r="N42" s="6"/>
-    </row>
-    <row r="43" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="62" t="s">
-        <v>16</v>
-      </c>
-      <c r="C43" s="78"/>
-      <c r="D43" s="78"/>
-      <c r="E43" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F43" s="74" t="e">
-        <f>$D$53/D43</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="43"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
-    </row>
-    <row r="44" spans="2:14" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="63" t="s">
-        <v>17</v>
-      </c>
-      <c r="C44" s="76"/>
-      <c r="D44" s="76"/>
-      <c r="E44" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F44" s="74" t="e">
-        <f t="shared" ref="F44:F53" si="2">$D$53/D44</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="43"/>
-      <c r="M44" s="6"/>
-    </row>
-    <row r="45" spans="2:14" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="63" t="s">
-        <v>18</v>
-      </c>
-      <c r="C45" s="75"/>
-      <c r="D45" s="75"/>
-      <c r="E45" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F45" s="74" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="43"/>
-      <c r="L45" s="6"/>
-      <c r="M45" s="6"/>
-    </row>
-    <row r="46" spans="2:14" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="63" t="s">
-        <v>35</v>
-      </c>
-      <c r="C46" s="77"/>
-      <c r="D46" s="77"/>
-      <c r="E46" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F46" s="74" t="e">
-        <f>$D$53/D46</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G46" s="43"/>
-      <c r="H46" s="43"/>
-      <c r="I46" s="43"/>
-      <c r="J46" s="43"/>
-    </row>
-    <row r="47" spans="2:14" s="1" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="66" t="s">
-        <v>19</v>
-      </c>
-      <c r="C47" s="77"/>
-      <c r="D47" s="77"/>
-      <c r="E47" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F47" s="74" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G47" s="43"/>
-      <c r="H47" s="43"/>
-      <c r="I47" s="43"/>
-      <c r="J47" s="43"/>
-    </row>
-    <row r="48" spans="2:14" s="68" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="63" t="s">
-        <v>32</v>
-      </c>
-      <c r="C48" s="79"/>
-      <c r="D48" s="79"/>
-      <c r="E48" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F48" s="74" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G48" s="67"/>
-      <c r="H48" s="67"/>
-      <c r="I48" s="67"/>
-      <c r="J48" s="67"/>
-    </row>
-    <row r="49" spans="2:10" s="68" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="63" t="s">
-        <v>33</v>
-      </c>
-      <c r="C49" s="79"/>
-      <c r="D49" s="79"/>
-      <c r="E49" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F49" s="74" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G49" s="67"/>
-      <c r="H49" s="67"/>
-      <c r="I49" s="67"/>
-      <c r="J49" s="67"/>
-    </row>
-    <row r="50" spans="2:10" s="68" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="63" t="s">
-        <v>34</v>
-      </c>
-      <c r="C50" s="79"/>
-      <c r="D50" s="79"/>
-      <c r="E50" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F50" s="74" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G50" s="67"/>
-      <c r="H50" s="67"/>
-      <c r="I50" s="67"/>
-      <c r="J50" s="67"/>
-    </row>
-    <row r="51" spans="2:10" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="C51" s="77"/>
-      <c r="D51" s="77"/>
-      <c r="E51" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F51" s="74" t="e">
-        <f>$D$53/D51</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G51" s="43"/>
-      <c r="H51" s="43"/>
-      <c r="I51" s="43"/>
-      <c r="J51" s="43"/>
-    </row>
-    <row r="52" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="63" t="s">
-        <v>21</v>
-      </c>
-      <c r="C52" s="77"/>
-      <c r="D52" s="77"/>
-      <c r="E52" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F52" s="74" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G52" s="43"/>
-      <c r="H52" s="43"/>
-      <c r="I52" s="43"/>
-      <c r="J52" s="43"/>
-    </row>
-    <row r="53" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="62" t="s">
-        <v>22</v>
-      </c>
-      <c r="C53" s="77">
-        <f>SUM(C43:C52)</f>
-        <v>0</v>
-      </c>
-      <c r="D53" s="77">
-        <f>SUM(D43:D52)</f>
-        <v>0</v>
-      </c>
-      <c r="E53" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F53" s="74" t="e">
-        <f>$D$53/D53</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G53" s="43"/>
-      <c r="H53" s="43"/>
-      <c r="I53" s="43"/>
-      <c r="J53" s="43"/>
-    </row>
-    <row r="54" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="62" t="s">
-        <v>23</v>
-      </c>
-      <c r="C54" s="43"/>
-      <c r="D54" s="43"/>
-      <c r="E54" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F54" s="43"/>
-      <c r="G54" s="43"/>
-      <c r="H54" s="43"/>
-      <c r="I54" s="43"/>
-      <c r="J54" s="43"/>
-    </row>
-    <row r="55" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C55" s="14"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16"/>
-      <c r="H55" s="16"/>
-      <c r="I55" s="36"/>
-    </row>
-    <row r="56" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="19"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="20"/>
-      <c r="H56" s="20"/>
-      <c r="I56" s="20"/>
-      <c r="J56" s="20"/>
-    </row>
-    <row r="57" spans="2:10" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B57" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="C57" s="37"/>
-      <c r="D57" s="37"/>
-      <c r="E57" s="37"/>
-      <c r="F57" s="37"/>
-      <c r="G57" s="37"/>
-      <c r="H57" s="37"/>
-      <c r="I57" s="37"/>
-      <c r="J57" s="37"/>
-    </row>
-    <row r="58" spans="2:10" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B58" s="70" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="59" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="71"/>
-    </row>
-    <row r="60" spans="2:10" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B60" s="72" t="s">
+    </row>
+    <row r="61" spans="2:10" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B61" s="70"/>
+    </row>
+    <row r="62" spans="2:10" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B62" s="71" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="2:10" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B61" s="72"/>
-    </row>
-    <row r="62" spans="2:10" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B62" s="73" t="s">
+    <row r="63" spans="2:10" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B63" s="71" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="2:10" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B63" s="73" t="s">
+    <row r="64" spans="2:10" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B64" s="71"/>
+    </row>
+    <row r="65" spans="2:2" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B65" s="70" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="2:10" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B64" s="73"/>
-    </row>
-    <row r="65" spans="2:2" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B65" s="72" t="s">
+    <row r="66" spans="2:2" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B66" s="70"/>
+    </row>
+    <row r="67" spans="2:2" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B67" s="71" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="66" spans="2:2" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B66" s="72"/>
-    </row>
-    <row r="67" spans="2:2" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B67" s="73" t="s">
+    <row r="68" spans="2:2" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B68" s="71" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="68" spans="2:2" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B68" s="73" t="s">
+    <row r="69" spans="2:2" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B69" s="71"/>
+    </row>
+    <row r="70" spans="2:2" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B70" s="70" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="69" spans="2:2" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B69" s="73"/>
-    </row>
-    <row r="70" spans="2:2" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B70" s="72" t="s">
+    <row r="71" spans="2:2" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B71" s="70"/>
+    </row>
+    <row r="72" spans="2:2" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B72" s="71" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="71" spans="2:2" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B71" s="72"/>
-    </row>
-    <row r="72" spans="2:2" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B72" s="73" t="s">
+    <row r="73" spans="2:2" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B73" s="71" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="73" spans="2:2" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B73" s="73" t="s">
+    <row r="74" spans="2:2" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B74" s="71"/>
+    </row>
+    <row r="75" spans="2:2" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B75" s="70" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="74" spans="2:2" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B74" s="73"/>
-    </row>
-    <row r="75" spans="2:2" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B75" s="72" t="s">
+    <row r="76" spans="2:2" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B76" s="70"/>
+    </row>
+    <row r="77" spans="2:2" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B77" s="71" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="76" spans="2:2" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B76" s="72"/>
-    </row>
-    <row r="77" spans="2:2" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B77" s="73" t="s">
+    <row r="78" spans="2:2" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B78" s="71" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="78" spans="2:2" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B78" s="73" t="s">
+    <row r="79" spans="2:2" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B79" s="71"/>
+    </row>
+    <row r="80" spans="2:2" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B80" s="70" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="79" spans="2:2" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B79" s="73"/>
-    </row>
-    <row r="80" spans="2:2" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B80" s="72" t="s">
+    <row r="81" spans="2:10" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B81" s="70"/>
+    </row>
+    <row r="82" spans="2:10" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B82" s="71" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="81" spans="2:10" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B81" s="72"/>
-    </row>
-    <row r="82" spans="2:10" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B82" s="73" t="s">
+    <row r="83" spans="2:10" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B83" s="71" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="83" spans="2:10" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B83" s="73" t="s">
+    <row r="84" spans="2:10" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B84" s="71"/>
+    </row>
+    <row r="85" spans="2:10" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B85" s="70" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="84" spans="2:10" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B84" s="73"/>
-    </row>
-    <row r="85" spans="2:10" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B85" s="72" t="s">
+    <row r="86" spans="2:10" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B86" s="70"/>
+    </row>
+    <row r="87" spans="2:10" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B87" s="71" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="86" spans="2:10" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B86" s="72"/>
-    </row>
-    <row r="87" spans="2:10" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B87" s="73" t="s">
+    <row r="88" spans="2:10" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B88" s="71" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="88" spans="2:10" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B88" s="73" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="89" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="90" spans="2:10" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B90" s="70" t="s">
-        <v>81</v>
-      </c>
-      <c r="C90" s="47"/>
-      <c r="D90" s="47"/>
-      <c r="E90" s="47"/>
-      <c r="F90" s="47"/>
-      <c r="G90" s="47"/>
-      <c r="H90" s="47"/>
-      <c r="I90" s="47"/>
-      <c r="J90" s="47"/>
+      <c r="B90" s="68" t="s">
+        <v>80</v>
+      </c>
+      <c r="C90" s="45"/>
+      <c r="D90" s="45"/>
+      <c r="E90" s="45"/>
+      <c r="F90" s="45"/>
+      <c r="G90" s="45"/>
+      <c r="H90" s="45"/>
+      <c r="I90" s="45"/>
+      <c r="J90" s="45"/>
     </row>
     <row r="91" spans="2:10" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B91" s="47" t="s">
+      <c r="B91" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="C91" s="45"/>
+      <c r="D91" s="45"/>
+      <c r="E91" s="45"/>
+      <c r="F91" s="45"/>
+      <c r="G91" s="45"/>
+      <c r="H91" s="45"/>
+      <c r="I91" s="45"/>
+      <c r="J91" s="45"/>
+    </row>
+    <row r="92" spans="2:10" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B92" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="C91" s="47"/>
-      <c r="D91" s="47"/>
-      <c r="E91" s="47"/>
-      <c r="F91" s="47"/>
-      <c r="G91" s="47"/>
-      <c r="H91" s="47"/>
-      <c r="I91" s="47"/>
-      <c r="J91" s="47"/>
-    </row>
-    <row r="92" spans="2:10" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B92" s="47" t="s">
+      <c r="C92" s="45"/>
+      <c r="D92" s="45"/>
+      <c r="E92" s="45"/>
+      <c r="F92" s="45"/>
+      <c r="G92" s="45"/>
+      <c r="H92" s="45"/>
+      <c r="I92" s="45"/>
+      <c r="J92" s="45"/>
+    </row>
+    <row r="93" spans="2:10" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B93" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="C92" s="47"/>
-      <c r="D92" s="47"/>
-      <c r="E92" s="47"/>
-      <c r="F92" s="47"/>
-      <c r="G92" s="47"/>
-      <c r="H92" s="47"/>
-      <c r="I92" s="47"/>
-      <c r="J92" s="47"/>
-    </row>
-    <row r="93" spans="2:10" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B93" s="47" t="s">
-        <v>79</v>
-      </c>
-      <c r="C93" s="47"/>
-      <c r="D93" s="47"/>
-      <c r="E93" s="47"/>
-      <c r="F93" s="47"/>
-      <c r="G93" s="47"/>
-      <c r="H93" s="47"/>
-      <c r="I93" s="47"/>
-      <c r="J93" s="47"/>
+      <c r="C93" s="45"/>
+      <c r="D93" s="45"/>
+      <c r="E93" s="45"/>
+      <c r="F93" s="45"/>
+      <c r="G93" s="45"/>
+      <c r="H93" s="45"/>
+      <c r="I93" s="45"/>
+      <c r="J93" s="45"/>
     </row>
     <row r="94" spans="2:10" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B94" s="47"/>
-      <c r="C94" s="47"/>
-      <c r="D94" s="47"/>
-      <c r="E94" s="47"/>
-      <c r="F94" s="47"/>
-      <c r="G94" s="47"/>
-      <c r="H94" s="47"/>
-      <c r="I94" s="47"/>
-      <c r="J94" s="47"/>
+      <c r="B94" s="45"/>
+      <c r="C94" s="45"/>
+      <c r="D94" s="45"/>
+      <c r="E94" s="45"/>
+      <c r="F94" s="45"/>
+      <c r="G94" s="45"/>
+      <c r="H94" s="45"/>
+      <c r="I94" s="45"/>
+      <c r="J94" s="45"/>
     </row>
     <row r="95" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="96" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="97" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="19" t="s">
+      <c r="B97" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C97" s="37"/>
-      <c r="D97" s="37"/>
-      <c r="E97" s="37"/>
-      <c r="F97" s="37"/>
-      <c r="G97" s="37"/>
-      <c r="H97" s="37"/>
-      <c r="I97" s="37"/>
-      <c r="J97" s="37"/>
+      <c r="C97" s="36"/>
+      <c r="D97" s="36"/>
+      <c r="E97" s="36"/>
+      <c r="F97" s="36"/>
+      <c r="G97" s="36"/>
+      <c r="H97" s="36"/>
+      <c r="I97" s="36"/>
+      <c r="J97" s="36"/>
     </row>
     <row r="98" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="20"/>
-      <c r="C98" s="20"/>
-      <c r="D98" s="20"/>
-      <c r="E98" s="20"/>
-      <c r="F98" s="20"/>
-      <c r="G98" s="20"/>
-      <c r="H98" s="20"/>
-      <c r="I98" s="20"/>
-      <c r="J98" s="20"/>
+      <c r="B98" s="19"/>
+      <c r="C98" s="19"/>
+      <c r="D98" s="19"/>
+      <c r="E98" s="19"/>
+      <c r="F98" s="19"/>
+      <c r="G98" s="19"/>
+      <c r="H98" s="19"/>
+      <c r="I98" s="19"/>
+      <c r="J98" s="19"/>
     </row>
     <row r="99" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I99" s="5"/>
-      <c r="J99" s="5"/>
+      <c r="I99" s="4"/>
+      <c r="J99" s="4"/>
     </row>
     <row r="100" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="101" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="102" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="103" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="40" t="s">
+      <c r="B103" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="C103" s="40"/>
+      <c r="D103" s="40"/>
+      <c r="E103" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="C103" s="41"/>
-      <c r="D103" s="41"/>
-      <c r="E103" s="41" t="s">
+      <c r="F103" s="41"/>
+      <c r="G103" s="41"/>
+      <c r="H103" s="41"/>
+      <c r="I103" s="37"/>
+      <c r="J103" s="37"/>
+    </row>
+    <row r="104" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="F103" s="42"/>
-      <c r="G103" s="42"/>
-      <c r="H103" s="42"/>
-      <c r="I103" s="38"/>
-      <c r="J103" s="38"/>
-    </row>
-    <row r="104" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="41" t="s">
+      <c r="C104" s="40"/>
+      <c r="D104" s="40"/>
+      <c r="E104" s="40"/>
+      <c r="F104" s="40"/>
+      <c r="G104" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="C104" s="41"/>
-      <c r="D104" s="41"/>
-      <c r="E104" s="41"/>
-      <c r="F104" s="41"/>
-      <c r="G104" s="41" t="s">
-        <v>85</v>
-      </c>
-      <c r="H104" s="41"/>
+      <c r="H104" s="40"/>
     </row>
     <row r="105" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="106" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="107" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C10:G10"/>
+  </mergeCells>
   <dataValidations count="1">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="ingrese un dato valido" prompt="Puede modificar estos rangos de acuerdo a la materialidad estimada para la auditoria_x000a_" sqref="C19:C21 D19:D20" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>-1</formula1>

--- a/static/templates_base_interna/5 PLANEACION/2 PLAN BASADO EN RIESGOS/21.1 Análisis Vertical  Resultados.xlsx
+++ b/static/templates_base_interna/5 PLANEACION/2 PLAN BASADO EN RIESGOS/21.1 Análisis Vertical  Resultados.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\ClienteAuditaPro1\sistema-audita\static\templates_base_interna\5 PLANEACION\2 PLAN BASADO EN RIESGOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\Desarrollos-Clientes\ClienteAuditaPro1\sistema-audita\static\templates_base_interna\5 PLANEACION\2 PLAN BASADO EN RIESGOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5887A3A7-B452-49B9-834A-CDCA4DF97293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA0D2FDB-D0CF-46B7-9296-028FC082C327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="885" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -343,7 +343,7 @@
     <t>Entidad XXXXXXX</t>
   </si>
   <si>
-    <t xml:space="preserve">Auditoría  de Procesos </t>
+    <t>Auditoría de Estados Financieros</t>
   </si>
 </sst>
 </file>
@@ -1462,7 +1462,7 @@
   <dimension ref="B2:N107"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:G10"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
